--- a/20140801.xlsx
+++ b/20140801.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="18255" windowHeight="7545"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="18260" windowHeight="7540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$35</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="121">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -486,14 +491,30 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ima</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是个表格测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok吗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,54 +566,54 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -633,7 +654,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -716,7 +737,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="B5E8BB"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -992,24 +1013,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1838,32 +1859,70 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>